--- a/SCRUM/SCRUM_TEAM_H.xlsx
+++ b/SCRUM/SCRUM_TEAM_H.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>PO - Backlog</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Team H</t>
+  </si>
+  <si>
+    <t>Due: 08.11.2021</t>
   </si>
 </sst>
 </file>
@@ -587,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -972,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1007,16 +1010,32 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="12"/>
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="13"/>
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>

--- a/SCRUM/SCRUM_TEAM_H.xlsx
+++ b/SCRUM/SCRUM_TEAM_H.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>PO - Backlog</t>
   </si>
@@ -59,27 +59,15 @@
     <t>Implementierung der TicTacToe-Darstellung</t>
   </si>
   <si>
-    <t>Umsetzung des Painters im Framework.</t>
-  </si>
-  <si>
     <t>Implementierung der TicTacToe-Regeln</t>
   </si>
   <si>
-    <t>Umsetzung der Rules im Framework.</t>
-  </si>
-  <si>
     <t>Implementierung eines menschlichen TicTacToe-Spielers</t>
   </si>
   <si>
-    <t>Umsetzung eines menschlichen Players im Framework.</t>
-  </si>
-  <si>
     <t>Implementierung eines PC gesteurten TicTacToe-Spielers</t>
   </si>
   <si>
-    <t>Umsetzung eines PC gesteuerten Players im Framework.</t>
-  </si>
-  <si>
     <t>Spezifikation eines weiteren Spiels</t>
   </si>
   <si>
@@ -99,6 +87,30 @@
   </si>
   <si>
     <t>Due: 08.11.2021</t>
+  </si>
+  <si>
+    <t>10min</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Umsetzung des Painters im Framework. Standard TicTacToe. Kreise und Kreise mit Ausblick auf Farbwahl. Ausblick: Variables Spielfeld.</t>
+  </si>
+  <si>
+    <t>Umsetzung eines menschlichen Players im Framework. Standard TicTacToe mit Mausbedingung.</t>
+  </si>
+  <si>
+    <t>Umsetzung eines PC gesteuerten Players im Framework. Standard TicTacToe der einfach automatisch spielt.</t>
+  </si>
+  <si>
+    <t>Umsetzung der Rules im Framework. Standard TicTacToe. Ausblick: Variables Spielfeld.</t>
+  </si>
+  <si>
+    <t>Focus Faktor: 0,5</t>
+  </si>
+  <si>
+    <t>180min</t>
   </si>
 </sst>
 </file>
@@ -267,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -307,6 +319,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -668,7 +683,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D6" s="13"/>
     </row>
@@ -677,10 +692,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D7" s="13"/>
     </row>
@@ -689,10 +704,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D8" s="13"/>
     </row>
@@ -701,10 +716,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D9" s="13"/>
     </row>
@@ -713,10 +728,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10" s="13"/>
     </row>
@@ -725,10 +740,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D11" s="13"/>
     </row>
@@ -973,10 +988,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -985,17 +1000,21 @@
     <col min="2" max="2" width="33.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="65.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="28.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1009,7 +1028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1020,10 +1039,13 @@
         <v>8</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -1034,76 +1056,108 @@
         <v>7</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="13"/>
     </row>
-    <row r="9" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="13"/>
     </row>
-    <row r="12" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>

--- a/SCRUM/SCRUM_TEAM_H.xlsx
+++ b/SCRUM/SCRUM_TEAM_H.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint-Backlog" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>PO - Backlog</t>
   </si>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -321,6 +321,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -609,15 +612,15 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="65.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="65.90625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.81640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -639,7 +642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -651,7 +654,7 @@
       </c>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -663,7 +666,7 @@
       </c>
       <c r="D4" s="13"/>
     </row>
-    <row r="5" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -675,7 +678,7 @@
       </c>
       <c r="D5" s="13"/>
     </row>
-    <row r="6" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -687,7 +690,7 @@
       </c>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2</v>
       </c>
@@ -699,7 +702,7 @@
       </c>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2</v>
       </c>
@@ -711,7 +714,7 @@
       </c>
       <c r="D8" s="13"/>
     </row>
-    <row r="9" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -723,7 +726,7 @@
       </c>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -735,7 +738,7 @@
       </c>
       <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -747,235 +750,235 @@
       </c>
       <c r="D11" s="13"/>
     </row>
-    <row r="12" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="13"/>
     </row>
-    <row r="30" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="13"/>
     </row>
-    <row r="31" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="13"/>
     </row>
-    <row r="32" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="13"/>
     </row>
-    <row r="35" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="13"/>
     </row>
-    <row r="36" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="13"/>
     </row>
-    <row r="37" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="13"/>
     </row>
-    <row r="38" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="13"/>
     </row>
-    <row r="39" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="13"/>
     </row>
-    <row r="40" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="13"/>
     </row>
-    <row r="41" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="13"/>
     </row>
-    <row r="42" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="13"/>
     </row>
-    <row r="43" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="13"/>
     </row>
-    <row r="44" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="13"/>
     </row>
-    <row r="45" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="13"/>
     </row>
-    <row r="46" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="13"/>
     </row>
-    <row r="47" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="13"/>
     </row>
-    <row r="48" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="13"/>
     </row>
-    <row r="49" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="13"/>
     </row>
-    <row r="50" spans="1:4" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -990,20 +993,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="65.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="14"/>
+    <col min="1" max="1" width="20.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="65.90625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1028,7 +1031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1045,7 +1048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -1062,7 +1065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -1094,7 +1097,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2</v>
       </c>
@@ -1107,261 +1110,263 @@
       <c r="D7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="13"/>
     </row>
-    <row r="9" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="13"/>
     </row>
-    <row r="12" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="13"/>
     </row>
-    <row r="30" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="13"/>
     </row>
-    <row r="31" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="13"/>
     </row>
-    <row r="32" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="13"/>
     </row>
-    <row r="35" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="13"/>
     </row>
-    <row r="36" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="13"/>
     </row>
-    <row r="37" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="13"/>
     </row>
-    <row r="38" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="13"/>
     </row>
-    <row r="39" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="13"/>
     </row>
-    <row r="40" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="13"/>
     </row>
-    <row r="41" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="13"/>
     </row>
-    <row r="42" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="13"/>
     </row>
-    <row r="43" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="13"/>
     </row>
-    <row r="44" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="13"/>
     </row>
-    <row r="45" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="13"/>
     </row>
-    <row r="46" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="13"/>
     </row>
-    <row r="47" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="13"/>
     </row>
-    <row r="48" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="13"/>
     </row>
-    <row r="49" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="13"/>
     </row>
-    <row r="50" spans="1:4" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
